--- a/IE DQN.xlsx
+++ b/IE DQN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbe64d8e92682174/Thesis/Data/Illustrative Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC104885111862B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F10A23C1-0553-4573-B87D-34A2EBF7966E}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC104885111862B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730C57A7-0155-4F70-A4AB-58C6F285F46D}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="1665" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Machine st2</t>
+  </si>
+  <si>
+    <t>Tardiness</t>
   </si>
   <si>
     <t>A1</t>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F4804B-9752-40EF-9A23-F098D93147C7}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -435,7 +438,7 @@
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -472,10 +475,13 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -510,10 +516,14 @@
       <c r="L2" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <f>MAX(0,J2-E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -548,10 +558,14 @@
       <c r="L3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="0">MAX(0,J3-E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -586,10 +600,14 @@
       <c r="L4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -624,10 +642,14 @@
       <c r="L5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -662,10 +684,14 @@
       <c r="L6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -700,8 +726,12 @@
       <c r="L7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -715,7 +745,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/IE DQN.xlsx
+++ b/IE DQN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/359e143b40d737b2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbe64d8e92682174/Thesis/Data/Illustrative Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC104885111862B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5672D2C2-78DC-4245-9151-ADC3EDB3FF3F}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC104885111862B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17224660-08CE-4F83-93F0-008E27CFC93F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DQN" sheetId="2" r:id="rId1"/>
@@ -102,19 +102,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,14 +131,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,19 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F4804B-9752-40EF-9A23-F098D93147C7}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -481,40 +463,40 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>70</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>1080</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>75</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>4</v>
       </c>
       <c r="M2">
@@ -523,40 +505,40 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>43.75</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>720</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>75</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>118.75</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
@@ -565,40 +547,40 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>8.33</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>240</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>19.329999999999998</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
@@ -607,40 +589,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>87.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>1212</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>19.329999999999998</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>106.83</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
@@ -649,40 +631,40 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>26.25</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>480</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>2.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>5.5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>106.83</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>133.08000000000001</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
@@ -691,108 +673,46 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>2.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>17.5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>360</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>2.5</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>118.75</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>136.25</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L7">
